--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -94,54 +91,51 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -151,22 +145,19 @@
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -524,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -743,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,37 +784,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.576271186440678</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5294117647058824</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L9">
         <v>29</v>
       </c>
-      <c r="K9">
-        <v>0.8301886792452831</v>
-      </c>
-      <c r="L9">
-        <v>88</v>
-      </c>
       <c r="M9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5291005291005291</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7885117493472585</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5155038759689923</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C11">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4899328859060403</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3866666666666667</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2420634920634921</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,87 +1184,63 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1367292225201072</v>
+        <v>0.01192394456977119</v>
       </c>
       <c r="C15">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>322</v>
+        <v>3066</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7674418604651163</v>
+      </c>
+      <c r="L15">
+        <v>33</v>
+      </c>
+      <c r="M15">
+        <v>33</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15">
-        <v>0.7816901408450704</v>
-      </c>
-      <c r="L15">
-        <v>111</v>
-      </c>
-      <c r="M15">
-        <v>111</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.00902061855670103</v>
-      </c>
-      <c r="C16">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>0.1</v>
-      </c>
-      <c r="F16">
-        <v>0.9</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>3076</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7708333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.76875</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L18">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.725</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1363,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1389,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1415,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6441176470588236</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1441,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1467,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.5851063829787234</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1493,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5782312925170068</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M25">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N25">
         <v>0.99</v>
@@ -1519,21 +1486,21 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.5732217573221757</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1545,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5571428571428572</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1571,15 +1538,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L28">
         <v>36</v>
@@ -1597,59 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L29">
-        <v>48</v>
-      </c>
-      <c r="M29">
-        <v>48</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L30">
-        <v>25</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
